--- a/Meals.xlsx
+++ b/Meals.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edbud\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\buddahome\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Meals" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId2"/>
+    <sheet name="testing" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="BOOK" comment="Book location">#REF!,#REF!</definedName>
@@ -230,27 +230,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2290,7 +2270,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:K9">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
